--- a/宏观体系打分 - 画图版.xlsx
+++ b/宏观体系打分 - 画图版.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haochen\Desktop\择时指标体系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\dinghaochen\Desktop\择时指标体系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA00880-AD4E-4A54-995F-5C68D71179E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -109,8 +108,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -172,10 +171,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -313,16 +312,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$249:$B$294</c:f>
+              <c:f>Sheet1!$B$249:$B$298</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.60899999999999999</c:v>
                 </c:pt>
@@ -460,12 +471,24 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00%">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00%">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00%">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00%">
+                  <c:v>0.76300000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B4E3-4CF4-8E20-F777CF5323FB}"/>
             </c:ext>
@@ -494,10 +517,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -635,16 +658,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$249:$C$294</c:f>
+              <c:f>Sheet1!$C$249:$C$298</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -781,13 +816,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4E3-4CF4-8E20-F777CF5323FB}"/>
             </c:ext>
@@ -816,10 +863,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -957,16 +1004,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$249:$D$294</c:f>
+              <c:f>Sheet1!$D$249:$D$298</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -1103,13 +1162,25 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-612A-4425-8DAE-0752072062FB}"/>
             </c:ext>
@@ -1138,10 +1209,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -1279,16 +1350,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$249:$E$294</c:f>
+              <c:f>Sheet1!$E$249:$E$298</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.69</c:v>
                 </c:pt>
@@ -1425,13 +1508,25 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-612A-4425-8DAE-0752072062FB}"/>
             </c:ext>
@@ -1460,10 +1555,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -1601,16 +1696,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$249:$F$294</c:f>
+              <c:f>Sheet1!$F$249:$F$298</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.36499999999999999</c:v>
                 </c:pt>
@@ -1747,13 +1854,25 @@
                   <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.36499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-612A-4425-8DAE-0752072062FB}"/>
             </c:ext>
@@ -1782,10 +1901,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$249:$A$294</c:f>
+              <c:f>Sheet1!$A$249:$A$298</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45662</c:v>
                 </c:pt>
@@ -1923,16 +2042,28 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="m/d/yyyy">
                   <c:v>45977</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>45998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>46005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$249:$G$294</c:f>
+              <c:f>Sheet1!$G$249:$G$298</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -2069,13 +2200,25 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-612A-4425-8DAE-0752072062FB}"/>
             </c:ext>
@@ -2090,11 +2233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="471135744"/>
-        <c:axId val="471137280"/>
+        <c:axId val="1295087600"/>
+        <c:axId val="1295092496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471135744"/>
+        <c:axId val="1295087600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,14 +2274,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471137280"/>
+        <c:crossAx val="1295092496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471137280"/>
+        <c:axId val="1295092496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2176,7 +2319,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471135744"/>
+        <c:crossAx val="1295087600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2217,6 +2360,7 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln w="25400">
@@ -2292,7 +2436,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C0E6F9-6F12-B3AE-0BC3-3FE589ED500B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5C0E6F9-6F12-B3AE-0BC3-3FE589ED500B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,11 +3034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="K278" sqref="K278"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9647,6 +9791,98 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>45984</v>
+      </c>
+      <c r="B295" s="6">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C295" s="2">
+        <v>1</v>
+      </c>
+      <c r="D295" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E295" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F295" s="6">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>45991</v>
+      </c>
+      <c r="B296" s="6">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1</v>
+      </c>
+      <c r="D296" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E296" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F296" s="6">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
+        <v>45998</v>
+      </c>
+      <c r="B297" s="6">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F297" s="6">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
+        <v>46005</v>
+      </c>
+      <c r="B298" s="6">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="F298" s="6">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
